--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/artfynd/A 45791-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/artfynd/A 45791-2019.xlsx", "A 45791-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/kartor/A 45791-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/kartor/A 45791-2019.png", "A 45791-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/klagomål/A 45791-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/klagomål/A 45791-2019.docx", "A 45791-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/klagomålsmail/A 45791-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/klagomålsmail/A 45791-2019.docx", "A 45791-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/tillsyn/A 45791-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/tillsyn/A 45791-2019.docx", "A 45791-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/tillsynsmail/A 45791-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HERRLJUNGA/tillsynsmail/A 45791-2019.docx", "A 45791-2019")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y221"/>
+  <dimension ref="A1:Y222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="R220" s="2" t="inlineStr"/>
     </row>
-    <row r="221">
+    <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
           <t>A 39423-2023</t>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13266,6 +13266,63 @@
         <v>0</v>
       </c>
       <c r="R221" s="2" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>A 44354-2023</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C222" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>HERRLJUNGA</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45188</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y222"/>
+  <dimension ref="A1:Y223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="R221" s="2" t="inlineStr"/>
     </row>
-    <row r="222">
+    <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
           <t>A 44354-2023</t>
@@ -13277,7 +13277,7 @@
         <v>45188</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13323,6 +13323,63 @@
         <v>0</v>
       </c>
       <c r="R222" s="2" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>A 47057-2023</t>
+        </is>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C223" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>HERRLJUNGA</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45188</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45196</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45188</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45196</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y223"/>
+  <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43717</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43339</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43340</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43346</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43346</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43369</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43402</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43430</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43461</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43477</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43488</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43491</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43515</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43529</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43597</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43649</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43658</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43669</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43672</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43697</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43698</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43699</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43714</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43724</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43801</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43819</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43832</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43879</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43915</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43916</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43918</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43937</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43937</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43955</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43969</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43969</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44024</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44057</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44057</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44069</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44078</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44085</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44085</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44090</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44090</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44097</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44138</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44140</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44179</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44200</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44201</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44236</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44246</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44250</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44251</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44256</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44256</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44313</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44313</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44327</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44380</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44380</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44396</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44421</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44447</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44453</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44459</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44459</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44474</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44515</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44515</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44525</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44533</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44533</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44545</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44546</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44564</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44564</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44608</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44659</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44719</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44743</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44790</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44834</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44847</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44882</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44925</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45005</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45021</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45026</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45072</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45159</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45188</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="R222" s="2" t="inlineStr"/>
     </row>
-    <row r="223">
+    <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
           <t>A 47057-2023</t>
@@ -13334,7 +13334,7 @@
         <v>45196</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13380,6 +13380,63 @@
         <v>0</v>
       </c>
       <c r="R223" s="2" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>A 48110-2023</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C224" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>HERRLJUNGA</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
